--- a/config/sizelife/sizelife_run5.xlsx
+++ b/config/sizelife/sizelife_run5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$D:$D</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="237" uniqueCount="33">
   <si>
     <t>number</t>
   </si>
@@ -117,12 +117,24 @@
   </si>
   <si>
     <t>s099.jpg</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>repeat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -345,19 +357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,19 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,19 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,19 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,24 +477,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -519,7 +531,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.49998474074526"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,172 +600,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -810,34 +824,34 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="1"/>
       </font>
       <border>
@@ -848,7 +862,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -876,36 +890,36 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39997558519242"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39997558519242"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39997558519242"/>
         </bottom>
       </border>
     </dxf>
@@ -920,19 +934,19 @@
       </font>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39997558519242"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="1"/>
       </font>
       <border>
@@ -947,59 +961,59 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39997558519242"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39997558519242"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="true"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79998168889431"/>
+          <bgColor theme="4" tint="0.79998168889431"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39997558519242"/>
         </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="false" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1008,7 +1022,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="false" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1030,7 +1044,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
@@ -1158,7 +1172,7 @@
               <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="2700000" scaled="false"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1171,7 +1185,7 @@
               <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="2700000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1201,7 +1215,7 @@
                 <a:schemeClr val="phClr"/>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
+            <a:lin ang="2700000" scaled="true"/>
           </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -1210,7 +1224,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="false">
               <a:schemeClr val="phClr">
                 <a:alpha val="60000"/>
               </a:schemeClr>
@@ -1219,12 +1233,12 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="false"/>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1242,7 +1256,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1267,7 +1281,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1277,374 +1291,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.7272727272727" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="5" max="5" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="7.625" style="1" customWidth="true"/>
+    <col min="5" max="5" width="6.625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="7.625" customWidth="true"/>
+    <col min="3" max="3" width="6.625" customWidth="true"/>
+    <col min="4" max="4" width="9.625" customWidth="true"/>
+    <col min="6" max="6" width="6.625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="0">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="0">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="0">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="0">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="0">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="0">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="0">
         <v>57</v>
       </c>
     </row>
